--- a/Price Benchmark_Quotation_1.xlsx
+++ b/Price Benchmark_Quotation_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devanshi_Padhy_New\My Projects\EaseworkAI\PriceBenchmarkng Dashboard\PriceBenchmarking-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{B7DFE199-FEAC-A44C-9A41-DDC838F93422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5B406E-C8CC-4B55-9469-FC2E4126F58E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF87FB-34EA-4003-BC22-D4B6CBC21083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41820" yWindow="4560" windowWidth="24460" windowHeight="16440" xr2:uid="{27C29F02-674C-754C-903E-F6627C32BD85}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{27C29F02-674C-754C-903E-F6627C32BD85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,20 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Supplier Name</t>
   </si>
   <si>
-    <t>Product name</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -59,9 +51,6 @@
     <t>ABC Hardware Inc</t>
   </si>
   <si>
-    <t>MICROSOFT SURFACE LAPTOP STUDIO I7-11370</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -71,42 +60,48 @@
     <t>Point Inc</t>
   </si>
   <si>
-    <t xml:space="preserve">SURFACE LAPTOP STUDIO I7
+    <t>Computer Inc</t>
+  </si>
+  <si>
+    <t>14" TOUCHSCREEN W/STYLUS LG 2-</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Tech Pvt Limited</t>
+  </si>
+  <si>
+    <t>14" TOUCHSCREEN W/STYLUS LG 2-IN-1 GRAM</t>
+  </si>
+  <si>
+    <t>HI-Yech Limited</t>
+  </si>
+  <si>
+    <t>SURFACE LAPTOP STUDIO I5</t>
+  </si>
+  <si>
+    <t>11.6" TOUCHSCREEN LAPTOP BLACK</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>MICROSOFT LAPTOP STUDIO I7-11370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELL LAPTOP STUDIO I7
 </t>
   </si>
   <si>
-    <t>Computer Inc</t>
-  </si>
-  <si>
-    <t>14" TOUCHSCREEN W/STYLUS LG 2-</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Tech Pvt Limited</t>
-  </si>
-  <si>
-    <t>14" TOUCHSCREEN W/STYLUS LG 2-IN-1 GRAM</t>
-  </si>
-  <si>
-    <t>HI-Yech Limited</t>
-  </si>
-  <si>
-    <t>CORE 15.6" LAPTOP BLACK</t>
-  </si>
-  <si>
-    <t>SURFACE LAPTOP STUDIO I5</t>
-  </si>
-  <si>
-    <t>11.6" TOUCHSCREEN LAPTOP BLACK</t>
+    <t>HP CORE 15.6" LAPTOP BLACK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,185 +505,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62505952-F0FC-EE48-9F81-9B96053AB25D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" activeCellId="1" sqref="B6 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.08203125" customWidth="1"/>
     <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3500</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="D4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30.75">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>550</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2400</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
-        <v>550</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>380</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="40db24c9-babb-404a-9c67-da397f01b81d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="84df0ec3-0a12-4b43-9df1-00c026216d0c">
+      <UserInfo>
+        <DisplayName>Yash V</DisplayName>
+        <AccountId>59</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Darshan</DisplayName>
+        <AccountId>32</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Devanshi P</DisplayName>
+        <AccountId>63</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40db24c9-babb-404a-9c67-da397f01b81d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84df0ec3-0a12-4b43-9df1-00c026216d0c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F9887A281429E47B36F39EE679EC59A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f710c2219c7630072d858e0f8095fc7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40db24c9-babb-404a-9c67-da397f01b81d" xmlns:ns3="84df0ec3-0a12-4b43-9df1-00c026216d0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="467c24acf13d081ebdb522ac4eb38579" ns2:_="" ns3:_="">
     <xsd:import namespace="40db24c9-babb-404a-9c67-da397f01b81d"/>
@@ -917,52 +926,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7242314-C503-436F-A50A-85410ED6B641}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40db24c9-babb-404a-9c67-da397f01b81d"/>
+    <ds:schemaRef ds:uri="84df0ec3-0a12-4b43-9df1-00c026216d0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="40db24c9-babb-404a-9c67-da397f01b81d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="84df0ec3-0a12-4b43-9df1-00c026216d0c">
-      <UserInfo>
-        <DisplayName>Yash V</DisplayName>
-        <AccountId>59</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Darshan</DisplayName>
-        <AccountId>32</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Devanshi P</DisplayName>
-        <AccountId>63</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="40db24c9-babb-404a-9c67-da397f01b81d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84df0ec3-0a12-4b43-9df1-00c026216d0c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F0FC0D6-713F-4718-95B8-AD2ACA822659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F878734D-B70F-49E1-984A-535C1E413C8E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F0FC0D6-713F-4718-95B8-AD2ACA822659}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7242314-C503-436F-A50A-85410ED6B641}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F878734D-B70F-49E1-984A-535C1E413C8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="40db24c9-babb-404a-9c67-da397f01b81d"/>
+    <ds:schemaRef ds:uri="84df0ec3-0a12-4b43-9df1-00c026216d0c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>